--- a/messages_log.xlsx
+++ b/messages_log.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,24 +427,444 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>51947393786@s.whatsapp.net</v>
+        <v>51958716179@s.whatsapp.net</v>
       </c>
       <c r="C2" t="str">
-        <v>F</v>
+        <v>[Mensaje sin texto]</v>
       </c>
       <c r="D2" t="str">
         <v>23/11/2024</v>
       </c>
       <c r="E2" t="str">
-        <v>15:03:12</v>
+        <v>16:41:12</v>
       </c>
       <c r="F2" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C3" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D3" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E3" t="str">
+        <v>16:41:12</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C4" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D4" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E4" t="str">
+        <v>16:41:13</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C5" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D5" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E5" t="str">
+        <v>16:41:13</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C6" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D6" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E6" t="str">
+        <v>16:41:16</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C7" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D7" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E7" t="str">
+        <v>16:41:16</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C8" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D8" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E8" t="str">
+        <v>16:41:23</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C9" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D9" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E9" t="str">
+        <v>16:41:28</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Kevin</v>
+      </c>
+      <c r="D10" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E10" t="str">
+        <v>16:41:30</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C11" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D11" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E11" t="str">
+        <v>16:41:35</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C12" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D12" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E12" t="str">
+        <v>16:41:42</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>51958716179@s.whatsapp.net</v>
+      </c>
+      <c r="C13" t="str">
+        <v>[Mensaje sin texto]</v>
+      </c>
+      <c r="D13" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E13" t="str">
+        <v>16:41:43</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Enviado</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Todo</v>
+      </c>
+      <c r="D14" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E14" t="str">
+        <v>16:41:52</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Recibido</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Ok estoy es una prueba</v>
+      </c>
+      <c r="D15" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E15" t="str">
+        <v>16:44:17</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Recibido</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Toe</v>
+      </c>
+      <c r="D16" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E16" t="str">
+        <v>16:44:23</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Recibido</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Tres</v>
+      </c>
+      <c r="D17" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E17" t="str">
+        <v>16:44:27</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Recibido</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Tistes tigres</v>
+      </c>
+      <c r="D18" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E18" t="str">
+        <v>16:44:33</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Recibido</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Comen tri</v>
+      </c>
+      <c r="D19" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E19" t="str">
+        <v>16:44:36</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Recibido</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Trigo</v>
+      </c>
+      <c r="D20" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E20" t="str">
+        <v>16:44:40</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Recibido</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C21" t="str">
+        <v>En</v>
+      </c>
+      <c r="D21" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E21" t="str">
+        <v>16:44:41</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Recibido</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Un</v>
+      </c>
+      <c r="D22" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E22" t="str">
+        <v>16:44:45</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Recibido</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>51947393786@s.whatsapp.net</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Trigal</v>
+      </c>
+      <c r="D23" t="str">
+        <v>23/11/2024</v>
+      </c>
+      <c r="E23" t="str">
+        <v>16:44:47</v>
+      </c>
+      <c r="F23" t="str">
         <v>Recibido</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
   </ignoredErrors>
 </worksheet>
 </file>